--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_75.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1274509803921569</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.42, 27.64)]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(53.54, 62.38)]</t>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06361746361746362</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'Bb/5', 'F']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.073119, 5.68228)]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2664473684210527</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1637717121588089</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'D/7', 'D/6'], ['A', 'D', 'D/7']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B'], ['F#', 'B', 'B']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.500249, 13.311405), (10.560212, 12.866913)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299), (26.162131, 40.546893)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1510324483775811</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
-        </is>
+          <t>isophonics_208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1987179487179487</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.13, 14.45)]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(64.08, 71.86)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:28.857891', '0:02:33.176802')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03263106320431161</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.7, 14.24), (8.35, 10.7), (8.94, 11.88)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(66.64, 70.98), (67.56, 74.1), (7.8, 13.6)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:23.340000', '0:01:27.640000'), ('0:00:10.560000', '0:00:17.340000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:02.320000'), ('0:01:23.200000', '0:01:31.140000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2884615384615384</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(26.66, 30.531)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(52.18, 59.04)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:08.760000', '0:02:14')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3731707317073171</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(138.02, 143.32)]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.162102, 15.7914)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:06.990000', '0:02:14.589000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.126984126984127</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Db']]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.399, 12.648)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(116.69, 119.66)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(55.8, 64.68)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.94, 25.28)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.159375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'D:maj/2', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(29.073753, 52.293707)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.72, 7.99)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1583333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(45.298, 63.135)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.142662, 9.133411)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(40.49, 47.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1646655231560892</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.87, 14.66), (28.19, 36.12)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.7, 10.9), (6.46, 12.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
